--- a/database/files/prof/business-upload/sales_level_split_upload_template.xlsx
+++ b/database/files/prof/business-upload/sales_level_split_upload_template.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dakahle\work\fin-dfa\database\files\business-upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dakahle\work\fin-dfa\database\files\prof\business-upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="240" windowWidth="15130" windowHeight="9180"/>
+    <workbookView xWindow="120" yWindow="240" windowWidth="15135" windowHeight="9180"/>
   </bookViews>
   <sheets>
-    <sheet name="Sales Split %" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="80000"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>User Note: Please begin populating this sheet with data from Row 6 leaving no space between data rows.</t>
   </si>
@@ -43,10 +43,13 @@
     <t>*Account ID</t>
   </si>
   <si>
-    <t>Company Code</t>
-  </si>
-  <si>
     <t>*Sales Territory Code</t>
+  </si>
+  <si>
+    <t>*Company Code</t>
+  </si>
+  <si>
+    <t>*Sub Account Code</t>
   </si>
 </sst>
 </file>
@@ -122,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -140,6 +143,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -448,63 +454,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.90625" customWidth="1"/>
-    <col min="6" max="6" width="23.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="3"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="13" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="14"/>
-    </row>
-    <row r="5" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="B4" s="17"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="4"/>
@@ -512,9 +521,59 @@
       <c r="H5" s="4"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/database/files/prof/business-upload/sales_level_split_upload_template.xlsx
+++ b/database/files/prof/business-upload/sales_level_split_upload_template.xlsx
@@ -125,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -135,21 +135,24 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,16 +460,16 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection activeCell="E2" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.5703125" bestFit="1" customWidth="1"/>
@@ -475,45 +478,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="14"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="12"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="13"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="19" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="4"/>
@@ -522,10 +525,10 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="11"/>
+      <c r="E6" s="20"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D7" s="1"/>
@@ -540,33 +543,33 @@
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.2">

--- a/database/files/prof/business-upload/sales_level_split_upload_template.xlsx
+++ b/database/files/prof/business-upload/sales_level_split_upload_template.xlsx
@@ -125,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -140,19 +140,16 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,18 +454,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E1:E1048576"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.85546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.5703125" bestFit="1" customWidth="1"/>
@@ -478,30 +475,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="18"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="10"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="16"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -510,13 +507,13 @@
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="11" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="4"/>
@@ -527,56 +524,31 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="20"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D10" s="1"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="1"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="1"/>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="1"/>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="1"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D18" s="1"/>
+      <c r="C16" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/database/files/prof/business-upload/sales_level_split_upload_template.xlsx
+++ b/database/files/prof/business-upload/sales_level_split_upload_template.xlsx
@@ -89,7 +89,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -112,20 +112,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -145,11 +136,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,14 +465,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
@@ -495,10 +485,10 @@
       <c r="H2" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="14"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -507,7 +497,7 @@
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="7" t="s">

--- a/database/files/prof/business-upload/sales_level_split_upload_template.xlsx
+++ b/database/files/prof/business-upload/sales_level_split_upload_template.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="240" windowWidth="15135" windowHeight="9180"/>
+    <workbookView xWindow="120" yWindow="240" windowWidth="15140" windowHeight="9180"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sales Level Split Upload" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -450,21 +450,21 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.81640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -474,7 +474,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -484,13 +484,13 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="14"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -511,32 +511,32 @@
       <c r="H5" s="4"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="E6" s="12"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
     </row>
